--- a/biology/Botanique/Micranthes/Micranthes.xlsx
+++ b/biology/Botanique/Micranthes/Micranthes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Micranthes est un genre de plantes à fleurs de la famille des Saxifragaceae, comprenant une centaine d'espèces réparties dans tout l'hémisphère nord. Ce genre est proche de Saxifraga, la Saxifrage.
 </t>
@@ -511,9 +523,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce genre comprend les quatre-vingt-trois espèces suivantes selon Plants of the World online (POWO)                (28 juin 2021)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce genre comprend les quatre-vingt-trois espèces suivantes selon Plants of the World online (POWO)                (28 juin 2021) :
 Micranthes apetala (Piper) Small
 Micranthes aprica (Greene) Small
 Micranthes astilboides (Losinsk.) Tkach
@@ -625,15 +639,17 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom scientifique de ce taxon est Micranthes, choisi par le botaniste britannique Adrian Hardy Haworth en 1812[2], pour l'espèce type Micranthes semipubescens[3].
-Les genres suivants sont synonymes de Micranthes[1],[4] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom scientifique de ce taxon est Micranthes, choisi par le botaniste britannique Adrian Hardy Haworth en 1812, pour l'espèce type Micranthes semipubescens.
+Les genres suivants sont synonymes de Micranthes, :
 Hexaphoma Raf.
 Hydatica Neck.
 Ocrearia Small
 Spatularia Haw.
-Micranthes pourrait être synonyme de Saxifraga[5], ou être une section de Saxifraga, sous le nom Saxifraga sect. Micranthes (Haw.) D. Don[3].
+Micranthes pourrait être synonyme de Saxifraga, ou être une section de Saxifraga, sous le nom Saxifraga sect. Micranthes (Haw.) D. Don.
 </t>
         </is>
       </c>
